--- a/Datasets/BaselCCR.xlsx
+++ b/Datasets/BaselCCR.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>USD</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>CR_IDX</t>
+  </si>
+  <si>
+    <t>EQ_IDX</t>
+  </si>
+  <si>
+    <t>S&amp;P500</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,6 +1790,47 @@
       <c r="T22" s="1"/>
       <c r="U22" s="5"/>
     </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets/BaselCCR.xlsx
+++ b/Datasets/BaselCCR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="13395" windowHeight="4710" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="13395" windowHeight="4710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Netting Sets" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>USD</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>CR_IDX</t>
-  </si>
-  <si>
-    <t>EQ_IDX</t>
-  </si>
-  <si>
-    <t>S&amp;P500</t>
   </si>
 </sst>
 </file>
@@ -609,7 +603,8 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,10 +702,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,47 +1786,6 @@
       <c r="T22" s="1"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="5"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:U1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,8 +1797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +1807,7 @@
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>

--- a/Datasets/BaselCCR.xlsx
+++ b/Datasets/BaselCCR.xlsx
@@ -604,7 +604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1799,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets/BaselCCR.xlsx
+++ b/Datasets/BaselCCR.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C34E1-BF99-40D7-8BE0-1B77FF2D0D79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="13395" windowHeight="4710" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Netting Sets" sheetId="9" r:id="rId1"/>
@@ -188,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,28 +264,28 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,12 +310,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -356,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +393,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,12 +637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,18 +733,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,19 +1825,19 @@
       <c r="U22" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1919,7 @@
       <c r="H3" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
